--- a/Horarios/HorarioWAN_2024_v2.xlsx
+++ b/Horarios/HorarioWAN_2024_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\Github\WAN\Horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8E8A98-556F-4B76-BEB4-04878FFF5FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780C1FC8-6E08-43C1-9BE0-EE143F29AD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{85581F8A-1D8C-4874-8F74-82FACFEFF46D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="52">
   <si>
     <t>3:00 - 4:00</t>
   </si>
@@ -310,6 +310,24 @@
   <si>
     <t>PRESENTACIÓN DEL RETO CON EL SOCIO FORMADOR</t>
   </si>
+  <si>
+    <t>EXAMEN MÓDULO 1</t>
+  </si>
+  <si>
+    <r>
+      <t>SEMANA 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (30 de Abril - 3 de Mayo)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -477,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -502,16 +520,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -523,13 +535,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -542,48 +602,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -600,6 +618,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1841,7 +1880,7 @@
   <dimension ref="B1:G44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:D44"/>
+      <selection activeCell="E21" sqref="E21:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1879,19 +1918,19 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="27" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1899,21 +1938,21 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="13" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="28" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1921,38 +1960,38 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="6"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
@@ -1982,19 +2021,19 @@
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="20" t="s">
+      <c r="C12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="18" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2002,56 +2041,56 @@
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="25"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="25"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="25"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="26"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="18"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="7"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -2081,19 +2120,19 @@
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="24" t="s">
+      <c r="C21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="18" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2101,56 +2140,56 @@
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="25"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="27" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="25"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="30" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="25"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="29"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="26"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="7"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -2180,19 +2219,19 @@
       <c r="B30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="24" t="s">
+      <c r="C30" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="18" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2200,56 +2239,56 @@
       <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="29"/>
     </row>
     <row r="32" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="27" t="s">
+      <c r="D32" s="25"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="25"/>
+      <c r="G32" s="29"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="30" t="s">
+      <c r="C33" s="16"/>
+      <c r="D33" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="25"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="29"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="26"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="30"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="7"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
@@ -2279,19 +2318,19 @@
       <c r="B39" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="34" t="s">
+      <c r="C39" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2299,71 +2338,71 @@
       <c r="B40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="25"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="29"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="27" t="s">
+      <c r="C41" s="13"/>
+      <c r="D41" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="15"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="25"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="29"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="25"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="29"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="26"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="30"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="37"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="24"/>
       <c r="G44" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F16:F17"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="G39:G43"/>
@@ -2374,21 +2413,21 @@
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="G12:G16"/>
     <mergeCell ref="G21:G25"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E21:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2397,10 +2436,2211 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74AAFBBE-D7AD-489B-A0D8-84910C6F3D48}">
+  <dimension ref="A1:U90"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="N44" sqref="I1:N44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="10.90625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="5" width="13.6328125" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="18.54296875" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="24.54296875" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="10.90625" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="15.81640625" customWidth="1"/>
+    <col min="11" max="11" width="19.54296875" customWidth="1"/>
+    <col min="12" max="12" width="19.36328125" customWidth="1"/>
+    <col min="13" max="13" width="16.6328125" customWidth="1"/>
+    <col min="14" max="14" width="22.54296875" customWidth="1"/>
+    <col min="16" max="16" width="10.90625" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="13.36328125" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="16.26953125" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="16.08984375" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="16.54296875" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="18.6328125" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="P1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+    </row>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B2" s="5"/>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="27"/>
+      <c r="I4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="27"/>
+      <c r="P4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="27"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="I6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="28"/>
+      <c r="P6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" s="28"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="28"/>
+      <c r="I7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="28"/>
+      <c r="P7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="28"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="6"/>
+      <c r="I8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="6"/>
+      <c r="P8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="P10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B11" s="5"/>
+      <c r="C11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="T12" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="28"/>
+      <c r="I13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="28"/>
+      <c r="P13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="28"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" s="14"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="27"/>
+      <c r="I15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="37"/>
+      <c r="N15" s="27"/>
+      <c r="P15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="45"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="27"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="I16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="27"/>
+      <c r="P16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U16" s="27"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="7"/>
+      <c r="I17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="7"/>
+      <c r="P17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="P19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B20" s="5"/>
+      <c r="C20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U20" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="S21" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="T21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U21" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="29"/>
+      <c r="I22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="29"/>
+      <c r="P22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="29"/>
+    </row>
+    <row r="23" spans="2:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="29"/>
+      <c r="I23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="14"/>
+      <c r="L23" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="29"/>
+      <c r="P23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" s="14"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U23" s="29"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="29"/>
+      <c r="I24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="47"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="29"/>
+      <c r="P24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S24" s="13"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="29"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="30"/>
+      <c r="I25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="13"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="30"/>
+      <c r="P25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="30"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="7"/>
+      <c r="I26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="14"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="7"/>
+      <c r="P26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="7"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="P28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B29" s="5"/>
+      <c r="C29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U29" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R30" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="S30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="T30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U30" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="29"/>
+      <c r="I31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="25"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="29"/>
+      <c r="P31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="29"/>
+    </row>
+    <row r="32" spans="2:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="29"/>
+      <c r="I32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" s="25"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="N32" s="29"/>
+      <c r="P32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="R32" s="25"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="U32" s="29"/>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="29"/>
+      <c r="I33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="16"/>
+      <c r="K33" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M33" s="23"/>
+      <c r="N33" s="29"/>
+      <c r="P33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S33" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="T33" s="23"/>
+      <c r="U33" s="29"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="30"/>
+      <c r="I34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="30"/>
+      <c r="P34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="30"/>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="7"/>
+      <c r="I35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="7"/>
+      <c r="P35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="7"/>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B37" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="P37" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B38" s="5"/>
+      <c r="C38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U38" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="L39" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="R39" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S39" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="T39" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="U39" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="23"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="41"/>
+      <c r="I40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" s="48"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="41"/>
+      <c r="P40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="29"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="41"/>
+      <c r="I41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K41" s="29"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="41"/>
+      <c r="P41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="R41" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="29"/>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="41"/>
+      <c r="I42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="20"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="41"/>
+      <c r="P42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="29"/>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="42"/>
+      <c r="I43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="20"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="42"/>
+      <c r="P43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="30"/>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="7"/>
+      <c r="I44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="14"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="7"/>
+      <c r="P44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="7"/>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="I47" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="I48" s="5"/>
+      <c r="J48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="K49" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L49" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M49" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="N49" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="27"/>
+    </row>
+    <row r="51" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L52" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M52" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N52" s="28"/>
+    </row>
+    <row r="53" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J53" s="28"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="28"/>
+    </row>
+    <row r="54" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="28"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="6"/>
+    </row>
+    <row r="55" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I56" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I57" s="5"/>
+      <c r="J57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L58" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="M58" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N58" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I59" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J59" s="11"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="29"/>
+    </row>
+    <row r="60" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I60" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J60" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K60" s="14"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N60" s="29"/>
+    </row>
+    <row r="61" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J61" s="13"/>
+      <c r="K61" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="L61" s="37"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="29"/>
+    </row>
+    <row r="62" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M62" s="13"/>
+      <c r="N62" s="30"/>
+    </row>
+    <row r="63" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I63" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="7"/>
+    </row>
+    <row r="64" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I65" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I66" s="5"/>
+      <c r="J66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N66" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L67" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M67" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N67" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J68" s="13"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="29"/>
+    </row>
+    <row r="69" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J69" s="14"/>
+      <c r="K69" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L69" s="13"/>
+      <c r="M69" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N69" s="29"/>
+    </row>
+    <row r="70" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J70" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K70" s="20"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="29"/>
+    </row>
+    <row r="71" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I71" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J71" s="16"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="30"/>
+    </row>
+    <row r="72" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I72" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="17"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="7"/>
+    </row>
+    <row r="73" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I74" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I75" s="5"/>
+      <c r="J75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N75" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I76" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J76" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L76" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M76" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N76" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I77" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J77" s="26"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="29"/>
+    </row>
+    <row r="78" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I78" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J78" s="25"/>
+      <c r="K78" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L78" s="13"/>
+      <c r="M78" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N78" s="29"/>
+    </row>
+    <row r="79" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I79" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J79" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K79" s="20"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="29"/>
+    </row>
+    <row r="80" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I80" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J80" s="16"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="30"/>
+    </row>
+    <row r="81" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I81" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="17"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="7"/>
+    </row>
+    <row r="82" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I83" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I84" s="5"/>
+      <c r="J84" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N84" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I85" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J85" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K85" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="L85" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M85" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="N85" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J86" s="23"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="39"/>
+      <c r="M86" s="39"/>
+      <c r="N86" s="41"/>
+    </row>
+    <row r="87" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I87" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J87" s="23"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="39"/>
+      <c r="M87" s="39"/>
+      <c r="N87" s="41"/>
+    </row>
+    <row r="88" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I88" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J88" s="23"/>
+      <c r="K88" s="29"/>
+      <c r="L88" s="39"/>
+      <c r="M88" s="39"/>
+      <c r="N88" s="41"/>
+    </row>
+    <row r="89" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I89" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" s="23"/>
+      <c r="K89" s="30"/>
+      <c r="L89" s="39"/>
+      <c r="M89" s="39"/>
+      <c r="N89" s="42"/>
+    </row>
+    <row r="90" spans="9:14" x14ac:dyDescent="0.35">
+      <c r="I90" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J90" s="24"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="40"/>
+      <c r="M90" s="40"/>
+      <c r="N90" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="167">
+    <mergeCell ref="J85:J90"/>
+    <mergeCell ref="K85:K89"/>
+    <mergeCell ref="L85:L90"/>
+    <mergeCell ref="M85:M90"/>
+    <mergeCell ref="N85:N89"/>
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="L76:L81"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="N76:N80"/>
+    <mergeCell ref="K78:K81"/>
+    <mergeCell ref="M78:M81"/>
+    <mergeCell ref="J79:J81"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="L67:L72"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="N67:N71"/>
+    <mergeCell ref="K69:K72"/>
+    <mergeCell ref="M69:M72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="L58:L61"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="N58:N62"/>
+    <mergeCell ref="J60:J63"/>
+    <mergeCell ref="M60:M63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="L49:L51"/>
+    <mergeCell ref="M49:M51"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="N51:N53"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="L52:L54"/>
+    <mergeCell ref="M52:M54"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="S39:S44"/>
+    <mergeCell ref="T39:T44"/>
+    <mergeCell ref="U39:U43"/>
+    <mergeCell ref="Q41:Q44"/>
+    <mergeCell ref="R41:R44"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R32"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U34"/>
+    <mergeCell ref="Q32:Q35"/>
+    <mergeCell ref="T32:T35"/>
+    <mergeCell ref="R33:R35"/>
+    <mergeCell ref="S30:S32"/>
+    <mergeCell ref="S33:S35"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="S21:S26"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U21:U25"/>
+    <mergeCell ref="Q23:Q26"/>
+    <mergeCell ref="T23:T26"/>
+    <mergeCell ref="R24:R26"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="S12:S17"/>
+    <mergeCell ref="T12:T15"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="Q14:Q17"/>
+    <mergeCell ref="U14:U16"/>
+    <mergeCell ref="R15:R17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="Q3:Q5"/>
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="K39:K43"/>
+    <mergeCell ref="L39:L44"/>
+    <mergeCell ref="M39:M44"/>
+    <mergeCell ref="N39:N43"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J41:J44"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N34"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="L33:L35"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N25"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="M23:M26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="M12:M15"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E26"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="D33:D35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3915E738-5CCE-4D5D-BEBD-B8AD88959681}">
   <dimension ref="B1:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView showGridLines="0" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="G44" sqref="B1:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2439,19 +4679,19 @@
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="27" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2459,21 +4699,21 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="13" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="28" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2481,38 +4721,38 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="6"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
@@ -2542,19 +4782,19 @@
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="19" t="s">
+      <c r="C12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="F12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2562,56 +4802,58 @@
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="25"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="25"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="25"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="26"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="18"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="7"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -2641,19 +4883,19 @@
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="24" t="s">
+      <c r="C21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2661,56 +4903,56 @@
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="25"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="27" t="s">
+      <c r="E23" s="13"/>
+      <c r="F23" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="25"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="30" t="s">
+      <c r="C24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="25"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="29"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="26"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="7"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
@@ -2740,19 +4982,19 @@
       <c r="B30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="24" t="s">
+      <c r="C30" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2760,56 +5002,56 @@
       <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="29"/>
     </row>
     <row r="32" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="25"/>
+      <c r="D32" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="27" t="s">
+      <c r="E32" s="13"/>
+      <c r="F32" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="25"/>
+      <c r="G32" s="29"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="30" t="s">
+      <c r="C33" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="25"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="29"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="26"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="30"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="7"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
@@ -2839,10 +5081,10 @@
       <c r="B39" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E39" s="38" t="s">
@@ -2859,8 +5101,8 @@
       <c r="B40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="25"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="29"/>
       <c r="E40" s="39"/>
       <c r="F40" s="39"/>
       <c r="G40" s="41"/>
@@ -2869,8 +5111,8 @@
       <c r="B41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="25"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="39"/>
       <c r="F41" s="39"/>
       <c r="G41" s="41"/>
@@ -2879,8 +5121,8 @@
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="36"/>
-      <c r="D42" s="25"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="39"/>
       <c r="F42" s="39"/>
       <c r="G42" s="41"/>
@@ -2889,8 +5131,8 @@
       <c r="B43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="36"/>
-      <c r="D43" s="26"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="30"/>
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
       <c r="G43" s="42"/>
@@ -2899,43 +5141,44 @@
       <c r="B44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="37"/>
+      <c r="C44" s="24"/>
       <c r="D44" s="7"/>
       <c r="E44" s="40"/>
       <c r="F44" s="40"/>
       <c r="G44" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="G30:G34"/>
+  <mergeCells count="40">
     <mergeCell ref="C39:C44"/>
     <mergeCell ref="E39:E44"/>
     <mergeCell ref="F39:F44"/>
     <mergeCell ref="G39:G43"/>
     <mergeCell ref="D39:D43"/>
-    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G34"/>
     <mergeCell ref="F32:F35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D35"/>
     <mergeCell ref="E21:E26"/>
     <mergeCell ref="F21:F22"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="F30:F31"/>
     <mergeCell ref="G21:G25"/>
-    <mergeCell ref="C23:C26"/>
     <mergeCell ref="F23:F26"/>
-    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D26"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="F12:F15"/>
     <mergeCell ref="G12:G16"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="D15:D17"/>
-    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F17"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E5"/>
@@ -2950,564 +5193,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3915E738-5CCE-4D5D-BEBD-B8AD88959681}">
-  <dimension ref="B1:G44"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" style="3"/>
-    <col min="3" max="5" width="13.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.54296875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B1" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="5"/>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="5"/>
-      <c r="C11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="25"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="26"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="5"/>
-      <c r="C20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="25"/>
-    </row>
-    <row r="23" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="25"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="25"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="26"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B29" s="5"/>
-      <c r="C29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="25"/>
-    </row>
-    <row r="32" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="25"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="25"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="26"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B38" s="5"/>
-      <c r="C38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" s="38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B40" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="41"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B41" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="41"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="36"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="41"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="36"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="42"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B44" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="E21:E26"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="D39:D43"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>